--- a/POSCON.PCB/POSCON.PCB.BOM.xlsx
+++ b/POSCON.PCB/POSCON.PCB.BOM.xlsx
@@ -248,7 +248,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -256,7 +256,12 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -281,9 +286,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,24 +596,25 @@
   </sheetPr>
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5703125"/>
-    <col min="2" max="4" width="29.7109375"/>
-    <col min="5" max="5" width="26.7109375"/>
-    <col min="6" max="6" width="61.7109375"/>
-    <col min="7" max="7" width="9.7109375"/>
-    <col min="8" max="8" width="22.28515625"/>
-    <col min="9" max="9" width="7.7109375"/>
-    <col min="10" max="10" width="7"/>
-    <col min="11" max="1025" width="11.5703125"/>
+    <col min="1" max="1" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="38.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="75.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" style="2"/>
+    <col min="11" max="1025" width="11.5703125" style="2"/>
+    <col min="1026" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -637,336 +644,336 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>1</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>4</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>2</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="2">
         <v>955016889</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="2">
         <v>1</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="2">
         <v>2</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="2">
         <v>1</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" s="2">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A15" s="2">
         <v>1</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="2" t="s">
         <v>34</v>
       </c>
     </row>
